--- a/__scraping__/fcainfoweb.nic.in/output.xlsx
+++ b/__scraping__/fcainfoweb.nic.in/output.xlsx
@@ -372,7 +372,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Centre</t>
+          <t>Hello World</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -52677,34 +52677,6 @@
           <t>NORTH ZONE</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -56681,34 +56653,6 @@
           <t>WEST ZONE</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -60244,34 +60188,6 @@
           <t>EAST ZONE</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
-      <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
-      <c r="W55" t="inlineStr"/>
-      <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr"/>
-      <c r="Z55" t="inlineStr"/>
-      <c r="AA55" t="inlineStr"/>
-      <c r="AB55" t="inlineStr"/>
-      <c r="AC55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -63366,34 +63282,6 @@
           <t>NORTH-EAST ZONE</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
-      <c r="Z77" t="inlineStr"/>
-      <c r="AA77" t="inlineStr"/>
-      <c r="AB77" t="inlineStr"/>
-      <c r="AC77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -64871,34 +64759,6 @@
           <t>SOUTH ZONE</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="inlineStr"/>
-      <c r="T88" t="inlineStr"/>
-      <c r="U88" t="inlineStr"/>
-      <c r="V88" t="inlineStr"/>
-      <c r="W88" t="inlineStr"/>
-      <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="inlineStr"/>
-      <c r="Z88" t="inlineStr"/>
-      <c r="AA88" t="inlineStr"/>
-      <c r="AB88" t="inlineStr"/>
-      <c r="AC88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -69745,7 +69605,6 @@
           <t>51</t>
         </is>
       </c>
-      <c r="AC121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -69888,7 +69747,6 @@
           <t>36</t>
         </is>
       </c>
-      <c r="AC122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -70031,7 +69889,6 @@
           <t>40</t>
         </is>
       </c>
-      <c r="AC123" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
